--- a/VBA/ImportInvoices.xlsx
+++ b/VBA/ImportInvoices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Profesional\7. Delphus Lab\Delphus Lab Academy\Excel365-Academy\VBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFCD44C-254B-4B35-A44E-48ED03C3CCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A8D9DD-B991-4BAC-ACD0-9ED1DD466B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59A99132-B933-4566-A3A2-CE37F6A3545C}"/>
   </bookViews>
@@ -142,23 +142,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -167,6 +160,11 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -198,13 +196,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0B4CF508-1E94-4A79-A546-872C4E4164D9}" name="invoice__2" displayName="invoice__2" ref="A1:G7" tableType="queryTable" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0B4CF508-1E94-4A79-A546-872C4E4164D9}" name="invoice__2" displayName="invoice__2" ref="A1:G7" tableType="queryTable" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:G7" xr:uid="{0B4CF508-1E94-4A79-A546-872C4E4164D9}"/>
   <tableColumns count="7">
-    <tableColumn id="8" xr3:uid="{6400CA02-E58C-4CD2-B1DF-8FBFD7B9D922}" uniqueName="8" name="InvDate" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{6400CA02-E58C-4CD2-B1DF-8FBFD7B9D922}" uniqueName="8" name="InvDate" queryTableFieldId="1" dataDxfId="2"/>
     <tableColumn id="9" xr3:uid="{1242E765-EF40-4D25-A5EF-EBF5A4BF3EF0}" uniqueName="9" name="InvNbr" queryTableFieldId="2"/>
-    <tableColumn id="10" xr3:uid="{BD0D602D-E8E7-4FDB-A17C-DFE271A07331}" uniqueName="10" name="RepNbr" queryTableFieldId="3" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{8E79A0CB-1EA1-40A6-9079-430EBB02D558}" uniqueName="11" name="CustNbr" queryTableFieldId="4" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{BD0D602D-E8E7-4FDB-A17C-DFE271A07331}" uniqueName="10" name="RepNbr" queryTableFieldId="3" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{8E79A0CB-1EA1-40A6-9079-430EBB02D558}" uniqueName="11" name="CustNbr" queryTableFieldId="4" dataDxfId="0"/>
     <tableColumn id="12" xr3:uid="{CF54E010-9A63-4398-9FFE-6650EE226FA9}" uniqueName="12" name="ProdRevenue" queryTableFieldId="5"/>
     <tableColumn id="13" xr3:uid="{1A62A7AF-E9F5-4FAB-8F77-77AC0F178D11}" uniqueName="13" name="ServRevenue" queryTableFieldId="6"/>
     <tableColumn id="14" xr3:uid="{474DFEF1-9EDD-49E5-BEFF-A2C3215DE814}" uniqueName="14" name="ProdCost" queryTableFieldId="7"/>
@@ -510,6 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37FEAF5F-447A-4670-B08A-5E17217A8F82}">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -528,25 +527,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -557,10 +556,10 @@
       <c r="B2">
         <v>123850</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2">
@@ -580,10 +579,10 @@
       <c r="B3">
         <v>123851</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3">
@@ -603,10 +602,10 @@
       <c r="B4">
         <v>123852</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4">
@@ -626,10 +625,10 @@
       <c r="B5">
         <v>123853</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5">
@@ -649,10 +648,10 @@
       <c r="B6">
         <v>123854</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6">
@@ -666,21 +665,21 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3">
         <f>SUM(E$2:E6)</f>
         <v>2400300</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <f>SUM(F$2:F6)</f>
         <v>10000</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <f>SUM(G$2:G6)</f>
         <v>1254650</v>
       </c>
